--- a/database/industries/folad/feghadir/cost/quarterly.xlsx
+++ b/database/industries/folad/feghadir/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\feghadir\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA1308B-C67A-4D13-865A-EB010CADE791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فغدیر-آهن و فولاد غدیر ایرانیان</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +318,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -329,7 +330,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -376,6 +377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -411,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,17 +597,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -582,7 +617,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +629,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -606,7 +641,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -616,7 +651,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -628,7 +663,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -640,7 +675,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -650,7 +685,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -672,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -682,95 +717,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>23342405</v>
+        <v>14136665</v>
       </c>
       <c r="F10" s="9">
-        <v>14136665</v>
+        <v>10029196</v>
       </c>
       <c r="G10" s="9">
-        <v>10029196</v>
+        <v>14752578</v>
       </c>
       <c r="H10" s="9">
-        <v>14752578</v>
+        <v>7642364</v>
       </c>
       <c r="I10" s="9">
-        <v>7642364</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9620518</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>196037</v>
+        <v>94694</v>
       </c>
       <c r="F11" s="11">
-        <v>94694</v>
+        <v>158493</v>
       </c>
       <c r="G11" s="11">
-        <v>158493</v>
+        <v>188966</v>
       </c>
       <c r="H11" s="11">
-        <v>188966</v>
+        <v>112850</v>
       </c>
       <c r="I11" s="11">
-        <v>112850</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>157698</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1899341</v>
+        <v>1529746</v>
       </c>
       <c r="F12" s="9">
-        <v>1529746</v>
+        <v>2550665</v>
       </c>
       <c r="G12" s="9">
-        <v>2550665</v>
+        <v>2213731</v>
       </c>
       <c r="H12" s="9">
-        <v>2213731</v>
+        <v>1583578</v>
       </c>
       <c r="I12" s="9">
-        <v>1583578</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2375727</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>25437783</v>
+        <v>15761105</v>
       </c>
       <c r="F13" s="13">
-        <v>15761105</v>
+        <v>12738354</v>
       </c>
       <c r="G13" s="13">
-        <v>12738354</v>
+        <v>17155275</v>
       </c>
       <c r="H13" s="13">
-        <v>17155275</v>
+        <v>9338792</v>
       </c>
       <c r="I13" s="13">
-        <v>9338792</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12153943</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -792,42 +827,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>25437783</v>
+        <v>15761105</v>
       </c>
       <c r="F15" s="13">
-        <v>15761105</v>
+        <v>12738354</v>
       </c>
       <c r="G15" s="13">
-        <v>12738354</v>
+        <v>17155275</v>
       </c>
       <c r="H15" s="13">
-        <v>17155275</v>
+        <v>9338792</v>
       </c>
       <c r="I15" s="13">
-        <v>9338792</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12153943</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>-183602</v>
       </c>
       <c r="F16" s="9">
-        <v>-183602</v>
+        <v>183602</v>
       </c>
       <c r="G16" s="9">
-        <v>183602</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -836,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -858,95 +893,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>25437783</v>
+        <v>15577503</v>
       </c>
       <c r="F18" s="15">
-        <v>15577503</v>
+        <v>12921956</v>
       </c>
       <c r="G18" s="15">
-        <v>12921956</v>
+        <v>17155275</v>
       </c>
       <c r="H18" s="15">
-        <v>17155275</v>
+        <v>9338792</v>
       </c>
       <c r="I18" s="15">
-        <v>9338792</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12153943</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>1681757</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="11">
-        <v>-1</v>
+        <v>2108553</v>
       </c>
       <c r="G19" s="11">
-        <v>2108553</v>
+        <v>1887291</v>
       </c>
       <c r="H19" s="11">
-        <v>1887291</v>
+        <v>10738427</v>
       </c>
       <c r="I19" s="11">
-        <v>10738427</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6143372</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-6192594</v>
+        <v>2108553</v>
       </c>
       <c r="F20" s="9">
-        <v>2108553</v>
+        <v>-1887291</v>
       </c>
       <c r="G20" s="9">
-        <v>-1887291</v>
+        <v>-10738427</v>
       </c>
       <c r="H20" s="9">
-        <v>-10738427</v>
+        <v>-6143372</v>
       </c>
       <c r="I20" s="9">
-        <v>-6143372</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1715107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>20926946</v>
+        <v>17686055</v>
       </c>
       <c r="F21" s="13">
-        <v>17686055</v>
+        <v>15118707</v>
       </c>
       <c r="G21" s="13">
-        <v>15118707</v>
+        <v>8304139</v>
       </c>
       <c r="H21" s="13">
-        <v>8304139</v>
+        <v>13933847</v>
       </c>
       <c r="I21" s="13">
-        <v>13933847</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16582208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -968,29 +1003,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>20926946</v>
+        <v>17686055</v>
       </c>
       <c r="F23" s="13">
-        <v>17686055</v>
+        <v>15118707</v>
       </c>
       <c r="G23" s="13">
-        <v>15118707</v>
+        <v>8304139</v>
       </c>
       <c r="H23" s="13">
-        <v>8304139</v>
+        <v>13933847</v>
       </c>
       <c r="I23" s="13">
-        <v>13933847</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16582208</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1000,7 +1035,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1010,7 +1045,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1020,7 +1055,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1052,7 +1087,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1060,45 +1095,45 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>111712</v>
+      </c>
+      <c r="F29" s="9">
+        <v>211606</v>
+      </c>
+      <c r="G29" s="9">
+        <v>261435</v>
+      </c>
+      <c r="H29" s="9">
+        <v>120585</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9">
-        <v>111712</v>
-      </c>
-      <c r="G29" s="9">
-        <v>211606</v>
-      </c>
-      <c r="H29" s="9">
-        <v>261435</v>
-      </c>
-      <c r="I29" s="9">
-        <v>120585</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>111712</v>
       </c>
       <c r="F30" s="13">
-        <v>111712</v>
+        <v>211606</v>
       </c>
       <c r="G30" s="13">
-        <v>211606</v>
+        <v>261435</v>
       </c>
       <c r="H30" s="13">
-        <v>261435</v>
+        <v>120585</v>
       </c>
       <c r="I30" s="13">
-        <v>120585</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1108,7 +1143,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1118,7 +1153,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1128,7 +1163,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>27</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1160,7 +1195,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1169,44 +1204,44 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>591094</v>
+        <v>389594</v>
       </c>
       <c r="F36" s="9">
-        <v>389594</v>
+        <v>290552</v>
       </c>
       <c r="G36" s="9">
-        <v>290552</v>
+        <v>222358</v>
       </c>
       <c r="H36" s="9">
-        <v>222358</v>
-      </c>
-      <c r="I36" s="9">
         <v>195447</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>591094</v>
+        <v>389594</v>
       </c>
       <c r="F37" s="13">
-        <v>389594</v>
+        <v>290552</v>
       </c>
       <c r="G37" s="13">
-        <v>290552</v>
+        <v>222358</v>
       </c>
       <c r="H37" s="13">
-        <v>222358</v>
+        <v>195447</v>
       </c>
       <c r="I37" s="13">
-        <v>195447</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1216,7 +1251,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1226,7 +1261,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1236,7 +1271,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1268,7 +1303,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1277,44 +1312,44 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>705169</v>
+        <v>289700</v>
       </c>
       <c r="F43" s="9">
-        <v>289700</v>
+        <v>240723</v>
       </c>
       <c r="G43" s="9">
-        <v>240723</v>
+        <v>363208</v>
       </c>
       <c r="H43" s="9">
-        <v>363208</v>
-      </c>
-      <c r="I43" s="9">
         <v>252517</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>705169</v>
+        <v>289700</v>
       </c>
       <c r="F44" s="13">
-        <v>289700</v>
+        <v>240723</v>
       </c>
       <c r="G44" s="13">
-        <v>240723</v>
+        <v>363208</v>
       </c>
       <c r="H44" s="13">
-        <v>363208</v>
+        <v>252517</v>
       </c>
       <c r="I44" s="13">
-        <v>252517</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1324,7 +1359,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1334,7 +1369,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1344,7 +1379,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>29</v>
       </c>
@@ -1366,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1376,7 +1411,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1385,44 +1420,44 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>111712</v>
+        <v>211606</v>
       </c>
       <c r="F50" s="9">
-        <v>211606</v>
+        <v>261435</v>
       </c>
       <c r="G50" s="9">
-        <v>261435</v>
+        <v>120585</v>
       </c>
       <c r="H50" s="9">
-        <v>120585</v>
-      </c>
-      <c r="I50" s="9">
         <v>63515</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>111712</v>
+        <v>211606</v>
       </c>
       <c r="F51" s="13">
-        <v>211606</v>
+        <v>261435</v>
       </c>
       <c r="G51" s="13">
-        <v>261435</v>
+        <v>120585</v>
       </c>
       <c r="H51" s="13">
-        <v>120585</v>
+        <v>63515</v>
       </c>
       <c r="I51" s="13">
-        <v>63515</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1432,7 +1467,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1442,7 +1477,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1452,7 +1487,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1484,29 +1519,29 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>61208</v>
+        <v>35591</v>
       </c>
       <c r="F57" s="9">
-        <v>35591</v>
+        <v>30598</v>
       </c>
       <c r="G57" s="9">
-        <v>30598</v>
+        <v>45151</v>
       </c>
       <c r="H57" s="9">
-        <v>45151</v>
-      </c>
-      <c r="I57" s="9">
         <v>212145</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>32</v>
       </c>
@@ -1524,11 +1559,11 @@
       <c r="H58" s="11">
         <v>0</v>
       </c>
-      <c r="I58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>33</v>
       </c>
@@ -1546,11 +1581,11 @@
       <c r="H59" s="9">
         <v>0</v>
       </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>34</v>
       </c>
@@ -1568,21 +1603,21 @@
       <c r="H60" s="11">
         <v>0</v>
       </c>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>85017</v>
+        <v>-85017</v>
       </c>
       <c r="F61" s="9">
-        <v>-85017</v>
+        <v>0</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
@@ -1590,77 +1625,77 @@
       <c r="H61" s="9">
         <v>0</v>
       </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>1409704</v>
+        <v>1257315</v>
       </c>
       <c r="F62" s="11">
-        <v>1257315</v>
+        <v>2174158</v>
       </c>
       <c r="G62" s="11">
-        <v>2174158</v>
+        <v>1785646</v>
       </c>
       <c r="H62" s="11">
-        <v>1785646</v>
-      </c>
-      <c r="I62" s="11">
         <v>916376</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>73552</v>
+        <v>36776</v>
       </c>
       <c r="F63" s="9">
-        <v>36776</v>
+        <v>33615</v>
       </c>
       <c r="G63" s="9">
-        <v>33615</v>
+        <v>36252</v>
       </c>
       <c r="H63" s="9">
-        <v>36252</v>
-      </c>
-      <c r="I63" s="9">
         <v>37546</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>244913</v>
+        <v>126581</v>
       </c>
       <c r="F64" s="11">
-        <v>126581</v>
+        <v>223640</v>
       </c>
       <c r="G64" s="11">
-        <v>223640</v>
+        <v>229437</v>
       </c>
       <c r="H64" s="11">
-        <v>229437</v>
-      </c>
-      <c r="I64" s="11">
         <v>186749</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>39</v>
       </c>
@@ -1678,52 +1713,52 @@
       <c r="H65" s="9">
         <v>0</v>
       </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>24947</v>
+        <v>158500</v>
       </c>
       <c r="F66" s="11">
-        <v>158500</v>
+        <v>88654</v>
       </c>
       <c r="G66" s="11">
-        <v>88654</v>
+        <v>117245</v>
       </c>
       <c r="H66" s="11">
-        <v>117245</v>
-      </c>
-      <c r="I66" s="11">
         <v>230762</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>1899341</v>
+        <v>1529746</v>
       </c>
       <c r="F67" s="15">
-        <v>1529746</v>
+        <v>2550665</v>
       </c>
       <c r="G67" s="15">
-        <v>2550665</v>
+        <v>2213731</v>
       </c>
       <c r="H67" s="15">
-        <v>2213731</v>
+        <v>1583578</v>
       </c>
       <c r="I67" s="15">
-        <v>1583578</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/folad/feghadir/cost/quarterly.xlsx
+++ b/database/industries/folad/feghadir/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\feghadir\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\feghadir\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA1308B-C67A-4D13-865A-EB010CADE791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9EA25-C77B-461C-8E08-3394D9663889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -52,6 +67,9 @@
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>دستمزد مستقیم تولید</t>
   </si>
   <si>
@@ -100,9 +118,6 @@
     <t>تن</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>مقدار خرید طی دوره</t>
   </si>
   <si>
@@ -110,6 +125,36 @@
   </si>
   <si>
     <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -598,16 +643,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I67"/>
+  <dimension ref="B1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -616,8 +661,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,8 +678,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -640,8 +695,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -650,8 +710,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -662,8 +727,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -674,8 +744,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -684,8 +759,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -706,8 +786,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -716,316 +811,531 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9">
+        <v>23342405</v>
+      </c>
+      <c r="J10" s="9">
         <v>14136665</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>10029196</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>14752578</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>7642364</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>9620518</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11">
+        <v>196037</v>
+      </c>
+      <c r="J11" s="11">
         <v>94694</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>158493</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>188966</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>112850</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>157698</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1899341</v>
+      </c>
+      <c r="J12" s="9">
         <v>1529746</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>2550665</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2213731</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>1583578</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>2375727</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="E13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13">
+        <v>25437783</v>
+      </c>
+      <c r="J13" s="13">
         <v>15761105</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>12738354</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>17155275</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>9338792</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>12153943</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13">
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="13">
+        <v>25437783</v>
+      </c>
+      <c r="J15" s="13">
         <v>15761105</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>12738354</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>17155275</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>9338792</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>12153943</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
         <v>-183602</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>183602</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="E18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="15">
+        <v>25437783</v>
+      </c>
+      <c r="J18" s="15">
         <v>15577503</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>12921956</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>17155275</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>9338792</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>12153943</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1681757</v>
+      </c>
+      <c r="J19" s="11">
         <v>-1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>2108553</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>1887291</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>10738427</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>6143372</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-6192594</v>
+      </c>
+      <c r="J20" s="9">
         <v>2108553</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-1887291</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-10738427</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-6143372</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-1715107</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13">
+        <v>20926946</v>
+      </c>
+      <c r="J21" s="13">
         <v>17686055</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>15118707</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>8304139</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>13933847</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>16582208</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
+      <c r="E22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13">
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13">
+        <v>20926946</v>
+      </c>
+      <c r="J23" s="13">
         <v>17686055</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>15118707</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>8304139</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>13933847</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>16582208</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1034,8 +1344,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1044,8 +1359,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1054,10 +1374,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1076,8 +1401,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1086,54 +1426,89 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="E29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9">
         <v>111712</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>211606</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>261435</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>120585</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
         <v>111712</v>
       </c>
-      <c r="F30" s="13">
+      <c r="K30" s="13">
         <v>211606</v>
       </c>
-      <c r="G30" s="13">
+      <c r="L30" s="13">
         <v>261435</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>120585</v>
       </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1142,8 +1517,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1152,8 +1532,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1162,10 +1547,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1184,8 +1574,23 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1194,54 +1599,89 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9">
+      <c r="E36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="9">
+        <v>591094</v>
+      </c>
+      <c r="J36" s="9">
         <v>389594</v>
       </c>
-      <c r="F36" s="9">
+      <c r="K36" s="9">
         <v>290552</v>
       </c>
-      <c r="G36" s="9">
+      <c r="L36" s="9">
         <v>222358</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>195447</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N36" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>591094</v>
+      </c>
+      <c r="J37" s="13">
         <v>389594</v>
       </c>
-      <c r="F37" s="13">
+      <c r="K37" s="13">
         <v>290552</v>
       </c>
-      <c r="G37" s="13">
+      <c r="L37" s="13">
         <v>222358</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>195447</v>
       </c>
-      <c r="I37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1250,8 +1690,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1260,8 +1705,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1270,10 +1720,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1292,8 +1747,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1302,54 +1772,89 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9">
+      <c r="E43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9">
+        <v>705169</v>
+      </c>
+      <c r="J43" s="9">
         <v>289700</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>240723</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>363208</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>252517</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N43" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <v>705169</v>
+      </c>
+      <c r="J44" s="13">
         <v>289700</v>
       </c>
-      <c r="F44" s="13">
+      <c r="K44" s="13">
         <v>240723</v>
       </c>
-      <c r="G44" s="13">
+      <c r="L44" s="13">
         <v>363208</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>252517</v>
       </c>
-      <c r="I44" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N44" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1358,8 +1863,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1368,8 +1878,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1378,10 +1893,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1400,8 +1920,23 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1410,54 +1945,89 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9">
+      <c r="E50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="9">
+        <v>111712</v>
+      </c>
+      <c r="J50" s="9">
         <v>211606</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>261435</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>120585</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>63515</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N50" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <v>111712</v>
+      </c>
+      <c r="J51" s="13">
         <v>211606</v>
       </c>
-      <c r="F51" s="13">
+      <c r="K51" s="13">
         <v>261435</v>
       </c>
-      <c r="G51" s="13">
+      <c r="L51" s="13">
         <v>120585</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>63515</v>
       </c>
-      <c r="I51" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1466,8 +2036,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1476,8 +2051,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1486,10 +2066,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1508,8 +2093,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1518,246 +2118,1652 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="9">
+        <v>4369257</v>
+      </c>
+      <c r="K57" s="9">
+        <v>8515783</v>
+      </c>
+      <c r="L57" s="9">
+        <v>10151223</v>
+      </c>
+      <c r="M57" s="9">
+        <v>4912457</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
+        <v>4369257</v>
+      </c>
+      <c r="K58" s="13">
+        <v>8515783</v>
+      </c>
+      <c r="L58" s="13">
+        <v>10151223</v>
+      </c>
+      <c r="M58" s="13">
+        <v>4912457</v>
+      </c>
+      <c r="N58" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="9">
+        <v>20981326</v>
+      </c>
+      <c r="J64" s="9">
+        <v>18283191</v>
+      </c>
+      <c r="K64" s="9">
+        <v>11664636</v>
+      </c>
+      <c r="L64" s="9">
+        <v>9513812</v>
+      </c>
+      <c r="M64" s="9">
+        <v>4731036</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13">
+        <v>20981326</v>
+      </c>
+      <c r="J65" s="13">
+        <v>18283191</v>
+      </c>
+      <c r="K65" s="13">
+        <v>11664636</v>
+      </c>
+      <c r="L65" s="13">
+        <v>9513812</v>
+      </c>
+      <c r="M65" s="13">
+        <v>4731036</v>
+      </c>
+      <c r="N65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="9">
+        <v>23342405</v>
+      </c>
+      <c r="J71" s="9">
+        <v>14136665</v>
+      </c>
+      <c r="K71" s="9">
+        <v>10029196</v>
+      </c>
+      <c r="L71" s="9">
+        <v>14752578</v>
+      </c>
+      <c r="M71" s="9">
+        <v>7642364</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+      <c r="I72" s="13">
+        <v>23342405</v>
+      </c>
+      <c r="J72" s="13">
+        <v>14136665</v>
+      </c>
+      <c r="K72" s="13">
+        <v>10029196</v>
+      </c>
+      <c r="L72" s="13">
+        <v>14752578</v>
+      </c>
+      <c r="M72" s="13">
+        <v>7642364</v>
+      </c>
+      <c r="N72" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="9">
+        <v>4369257</v>
+      </c>
+      <c r="J78" s="9">
+        <v>8515783</v>
+      </c>
+      <c r="K78" s="9">
+        <v>10151223</v>
+      </c>
+      <c r="L78" s="9">
+        <v>4912457</v>
+      </c>
+      <c r="M78" s="9">
+        <v>2001129</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
+        <v>0</v>
+      </c>
+      <c r="G79" s="13">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
+        <v>4369257</v>
+      </c>
+      <c r="J79" s="13">
+        <v>8515783</v>
+      </c>
+      <c r="K79" s="13">
+        <v>10151223</v>
+      </c>
+      <c r="L79" s="13">
+        <v>4912457</v>
+      </c>
+      <c r="M79" s="13">
+        <v>2001129</v>
+      </c>
+      <c r="N79" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="9">
+        <v>39111796</v>
+      </c>
+      <c r="K85" s="9">
+        <v>40243580</v>
+      </c>
+      <c r="L85" s="9">
+        <v>38828860</v>
+      </c>
+      <c r="M85" s="9">
+        <v>40738541</v>
+      </c>
+      <c r="N85" s="9">
+        <v>31506400</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="9">
+        <v>35495752</v>
+      </c>
+      <c r="J91" s="9">
+        <v>46928831</v>
+      </c>
+      <c r="K91" s="9">
+        <v>40146466</v>
+      </c>
+      <c r="L91" s="9">
+        <v>42786012</v>
+      </c>
+      <c r="M91" s="9">
+        <v>24206235</v>
+      </c>
+      <c r="N91" s="9">
+        <v>25097943</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="9">
+        <v>33101859</v>
+      </c>
+      <c r="J97" s="9">
+        <v>48797601</v>
+      </c>
+      <c r="K97" s="9">
+        <v>41662807</v>
+      </c>
+      <c r="L97" s="9">
+        <v>40617437</v>
+      </c>
+      <c r="M97" s="9">
+        <v>30264750</v>
+      </c>
+      <c r="N97" s="9">
+        <v>24588241</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="9">
+        <v>39111796</v>
+      </c>
+      <c r="J103" s="9">
+        <v>40243580</v>
+      </c>
+      <c r="K103" s="9">
+        <v>38828860</v>
+      </c>
+      <c r="L103" s="9">
+        <v>40738541</v>
+      </c>
+      <c r="M103" s="9">
+        <v>31506400</v>
+      </c>
+      <c r="N103" s="9">
+        <v>30531213</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="9">
+        <v>61208</v>
+      </c>
+      <c r="J109" s="9">
         <v>35591</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K109" s="9">
         <v>30598</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L109" s="9">
         <v>45151</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M109" s="9">
         <v>212145</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>0</v>
-      </c>
-      <c r="G58" s="11">
-        <v>0</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9">
+      <c r="N109" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="9">
+        <v>0</v>
+      </c>
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="9">
+        <v>85017</v>
+      </c>
+      <c r="J113" s="9">
         <v>-85017</v>
       </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
+      <c r="K113" s="9">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
+        <v>0</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="11">
+        <v>1409704</v>
+      </c>
+      <c r="J114" s="11">
         <v>1257315</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K114" s="11">
         <v>2174158</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L114" s="11">
         <v>1785646</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M114" s="11">
         <v>916376</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9">
+      <c r="N114" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="9">
+        <v>73552</v>
+      </c>
+      <c r="J115" s="9">
         <v>36776</v>
       </c>
-      <c r="F63" s="9">
+      <c r="K115" s="9">
         <v>33615</v>
       </c>
-      <c r="G63" s="9">
+      <c r="L115" s="9">
         <v>36252</v>
       </c>
-      <c r="H63" s="9">
+      <c r="M115" s="9">
         <v>37546</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11">
+      <c r="N115" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="11">
+        <v>244913</v>
+      </c>
+      <c r="J116" s="11">
         <v>126581</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K116" s="11">
         <v>223640</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L116" s="11">
         <v>229437</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M116" s="11">
         <v>186749</v>
       </c>
-      <c r="I64" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11">
+      <c r="N116" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="9">
+        <v>0</v>
+      </c>
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="11">
+        <v>24947</v>
+      </c>
+      <c r="J118" s="11">
         <v>158500</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K118" s="11">
         <v>88654</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L118" s="11">
         <v>117245</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M118" s="11">
         <v>230762</v>
       </c>
-      <c r="I66" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15">
+      <c r="N118" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15">
+        <v>0</v>
+      </c>
+      <c r="F119" s="15">
+        <v>0</v>
+      </c>
+      <c r="G119" s="15">
+        <v>0</v>
+      </c>
+      <c r="H119" s="15">
+        <v>0</v>
+      </c>
+      <c r="I119" s="15">
+        <v>1899341</v>
+      </c>
+      <c r="J119" s="15">
         <v>1529746</v>
       </c>
-      <c r="F67" s="15">
+      <c r="K119" s="15">
         <v>2550665</v>
       </c>
-      <c r="G67" s="15">
+      <c r="L119" s="15">
         <v>2213731</v>
       </c>
-      <c r="H67" s="15">
+      <c r="M119" s="15">
         <v>1583578</v>
       </c>
-      <c r="I67" s="15">
+      <c r="N119" s="15">
         <v>0</v>
       </c>
     </row>

--- a/database/industries/folad/feghadir/cost/quarterly.xlsx
+++ b/database/industries/folad/feghadir/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\feghadir\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\feghadir\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9EA25-C77B-461C-8E08-3394D9663889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5705D-95F0-450A-9EA3-149E76BDE6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +716,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -765,7 +765,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -802,7 +802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -817,7 +817,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -854,7 +854,7 @@
         <v>9620518</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -891,7 +891,7 @@
         <v>157698</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -928,7 +928,7 @@
         <v>2375727</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -965,7 +965,7 @@
         <v>12153943</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>12153943</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>12153943</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>-1</v>
       </c>
       <c r="K19" s="11">
-        <v>2108553</v>
+        <v>4084041</v>
       </c>
       <c r="L19" s="11">
         <v>1887291</v>
@@ -1187,7 +1187,7 @@
         <v>6143372</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>-1715107</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>16582208</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>16582208</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1350,7 +1350,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1365,7 +1365,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1380,7 +1380,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1538,7 +1538,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1553,7 +1553,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1605,7 +1605,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>18</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1726,7 +1726,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>33</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1778,7 +1778,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1869,7 +1869,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1884,7 +1884,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1899,7 +1899,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>34</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1951,7 +1951,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>30</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>18</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2042,7 +2042,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2057,7 +2057,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2072,7 +2072,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>35</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2124,7 +2124,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>18</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2215,7 +2215,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2230,7 +2230,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2245,7 +2245,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>37</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2297,7 +2297,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>30</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>18</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2388,7 +2388,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2403,7 +2403,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2418,7 +2418,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2470,7 +2470,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>30</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>18</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2561,7 +2561,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2576,7 +2576,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2591,7 +2591,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>39</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2643,7 +2643,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>30</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2734,7 +2734,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2749,7 +2749,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2764,7 +2764,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>40</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2816,7 +2816,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>31506400</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2870,7 +2870,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2885,7 +2885,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2900,7 +2900,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>42</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2952,7 +2952,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>30</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>25097943</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3006,7 +3006,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3021,7 +3021,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3036,7 +3036,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>43</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3088,7 +3088,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>30</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>24588241</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3142,7 +3142,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3157,7 +3157,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3172,7 +3172,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>44</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3224,7 +3224,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>30</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>30531213</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3278,7 +3278,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3293,7 +3293,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3308,7 +3308,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3360,7 +3360,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>47</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>48</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>49</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>50</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>51</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>53</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>54</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>55</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>18</v>
       </c>
